--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1435357.157776396</v>
+        <v>-1440645.273271167</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13542856.98816727</v>
+        <v>13541087.04999601</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>135.0653574161879</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>221.0451167213734</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487175394</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>1.886790540218305</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914567</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>136.391956060958</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>223.1108104349758</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968138</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>127.7349619690956</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>142.8312239526412</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>141.1972936897211</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>1.117306771731687</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>63.53026179397022</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>216.8524214313259</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>253.1346542527493</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>50.56279842079304</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>178.5822799167642</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>119.5714257492629</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.15050020082431</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>120.0961968842568</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.86907505257666</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.04499358819783</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422874498</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059378</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.288224026355</v>
+        <v>690.7979323761085</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.112722529285</v>
+        <v>690.7979323761085</v>
       </c>
       <c r="D2" t="n">
-        <v>995.6715937459528</v>
+        <v>690.7979323761085</v>
       </c>
       <c r="E2" t="n">
-        <v>593.0880688624973</v>
+        <v>690.7979323761085</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>677.9438979464903</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475503</v>
+        <v>264.7811424344935</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>259.7298875736958</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>259.7298875736958</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.868375788301</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737752</v>
+        <v>1685.14818031739</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737752</v>
+        <v>1429.395450751989</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737752</v>
+        <v>1087.288641455507</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737752</v>
+        <v>1087.288641455507</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737752</v>
+        <v>1087.288641455507</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737752</v>
+        <v>690.7979323761085</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475503</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653889</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475503</v>
+        <v>1685.232386277647</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475503</v>
+        <v>1685.232386277647</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475503</v>
+        <v>1685.232386277647</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475503</v>
+        <v>1529.67357413685</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475503</v>
+        <v>1372.347639349823</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475503</v>
+        <v>1204.093585449268</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475503</v>
+        <v>1204.093585449268</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>1204.093585449268</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446872</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>1870.440404968949</v>
       </c>
       <c r="U4" t="n">
-        <v>97.06776516156884</v>
+        <v>1870.440404968949</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475503</v>
+        <v>1870.440404968949</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475503</v>
+        <v>1870.440404968949</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475503</v>
+        <v>1870.440404968949</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475503</v>
+        <v>1870.440404968949</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>592.9711883366296</v>
+        <v>288.8440876423734</v>
       </c>
       <c r="C5" t="n">
-        <v>592.9711883366296</v>
+        <v>288.8440876423734</v>
       </c>
       <c r="D5" t="n">
-        <v>592.9711883366296</v>
+        <v>288.8440876423734</v>
       </c>
       <c r="E5" t="n">
-        <v>190.3876634531741</v>
+        <v>288.8440876423734</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663478</v>
+        <v>275.9900532127552</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475503</v>
+        <v>266.8677017411625</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354907</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572953</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737752</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297168</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731767</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V5" t="n">
-        <v>1353.422828435285</v>
+        <v>1049.295727741029</v>
       </c>
       <c r="W5" t="n">
-        <v>982.4237934035727</v>
+        <v>678.2966927093166</v>
       </c>
       <c r="X5" t="n">
-        <v>592.9711883366296</v>
+        <v>288.8440876423734</v>
       </c>
       <c r="Y5" t="n">
-        <v>592.9711883366296</v>
+        <v>288.8440876423734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.89759559188</v>
+        <v>407.9705203262581</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.89759559188</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182861</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="C7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="D7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="E7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="F7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="G7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475503</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>674.7753163419414</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>439.0562645101755</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>439.0562645101755</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>439.0562645101755</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>439.0562645101755</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.5208735049526</v>
+        <v>204.9759422931586</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.4370641991123</v>
+        <v>1574.572561600121</v>
       </c>
       <c r="C8" t="n">
-        <v>778.8135352195961</v>
+        <v>1181.397060103052</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>795.9559313197194</v>
       </c>
       <c r="E8" t="n">
         <v>393.3724064362639</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2364.519912378461</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2364.519912378461</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2364.519912378461</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.889669266056</v>
+        <v>2364.519912378461</v>
       </c>
       <c r="X8" t="n">
-        <v>921.4370641991123</v>
+        <v>1975.067307311518</v>
       </c>
       <c r="Y8" t="n">
-        <v>921.4370641991123</v>
+        <v>1975.067307311518</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>884.5880110330252</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>714.3828930990144</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>399.450245395098</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>180.4073954644657</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.4073954644657</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1722.982659195497</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C11" t="n">
-        <v>1401.603432844622</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2354.194255670758</v>
       </c>
       <c r="X11" t="n">
-        <v>2376.375563693905</v>
+        <v>2036.537925750009</v>
       </c>
       <c r="Y11" t="n">
-        <v>2051.681129760701</v>
+        <v>1711.843491816804</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2037.722613466195</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>593.7970597253334</v>
+        <v>327.9434040506007</v>
       </c>
       <c r="C13" t="n">
-        <v>495.3882169375164</v>
+        <v>327.9434040506007</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5513789862251</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916216</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507882</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774624</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581885</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.410653902773</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118216</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138154</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1444.627927593279</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.241786263214</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>1070.058716230232</v>
+        <v>924.9842784840479</v>
       </c>
       <c r="W13" t="n">
-        <v>858.5245893076035</v>
+        <v>713.4501515614195</v>
       </c>
       <c r="X13" t="n">
-        <v>858.5245893076035</v>
+        <v>592.6709336328711</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2088032704407</v>
+        <v>441.3551475957082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1645.302650055462</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3012.87507187161</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2861.170744577221</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2861.170744577221</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2590.860210426933</v>
+        <v>2984.647095423699</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.657450541414</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>1974.001120620665</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1974.001120620665</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.4047163160375</v>
+        <v>268.8305097821767</v>
       </c>
       <c r="C16" t="n">
-        <v>305.4047163160375</v>
+        <v>231.4113243395524</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4047163160375</v>
+        <v>231.4113243395524</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>988.1475398457731</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>793.9644698127911</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689343</v>
+        <v>582.4303428901626</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689343</v>
+        <v>420.1462958193395</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.0098426317715</v>
+        <v>268.8305097821767</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099309</v>
@@ -5507,7 +5507,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924128</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,16 +5595,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,16 +6230,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343939</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6248,7 +6248,7 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,25 +6379,25 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6470,7 +6470,7 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118093</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
         <v>2546.304425485128</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6598,73 +6598,73 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.755098887807</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879683</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746022</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225746</v>
+        <v>568.7078825225735</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904109</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309769027</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741593</v>
+        <v>1219.219822695432</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513244</v>
+        <v>1765.220722740012</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150706</v>
+        <v>2404.684126952457</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043034</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174556</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515733</v>
+        <v>507.0483151386148</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169074</v>
+        <v>804.9920140518616</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775186</v>
+        <v>988.1816480830707</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320543</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,16 +6965,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840155</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,7 +7427,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229814</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>149.53381142224</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960398</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343038</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655131</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>363.4893534998004</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376824</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8061,16 +8061,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>533.3182154539926</v>
+        <v>492.8960778890037</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886045</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>277.7768138244402</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970427</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269462</v>
+        <v>462.556085251251</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>502.5559668112513</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>290.9809095353983</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>196.5449382119064</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,7 +9006,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,10 +9252,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>291.5199566763059</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>57.37375084801772</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.6479338658705</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.92381152902189</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>41.08978085085192</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.619606912803674</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>147.5112319245281</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.40855105707965</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>60.37976077174095</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1186735.044492267</v>
+        <v>1185832.723071627</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1186735.044492267</v>
+        <v>1185832.723071627</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="C2" t="n">
         <v>108199.3068560141</v>
@@ -26320,7 +26320,7 @@
         <v>108199.3068560141</v>
       </c>
       <c r="E2" t="n">
-        <v>95615.41405464029</v>
+        <v>95615.41405464026</v>
       </c>
       <c r="F2" t="n">
         <v>95615.41405464026</v>
@@ -26329,19 +26329,19 @@
         <v>108199.3068560141</v>
       </c>
       <c r="H2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="I2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="J2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="K2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="L2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="M2" t="n">
         <v>108199.3068560141</v>
@@ -26350,10 +26350,10 @@
         <v>108199.3068560141</v>
       </c>
       <c r="O2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="P2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728539</v>
+        <v>62456.24177539675</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002077</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002077</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340505.1504949506</v>
+        <v>-336454.4784875358</v>
       </c>
       <c r="C6" t="n">
-        <v>-158300.2022030944</v>
+        <v>-162595.8214534807</v>
       </c>
       <c r="D6" t="n">
-        <v>-164892.2635428166</v>
+        <v>-172628.5527662084</v>
       </c>
       <c r="E6" t="n">
-        <v>-182490.5416194526</v>
+        <v>-182700.2731661421</v>
       </c>
       <c r="F6" t="n">
-        <v>-70367.98014540806</v>
+        <v>-70577.71169209757</v>
       </c>
       <c r="G6" t="n">
         <v>-157952.0789879776</v>
       </c>
       <c r="H6" t="n">
-        <v>-110526.7534512956</v>
+        <v>-110526.7534512955</v>
       </c>
       <c r="I6" t="n">
         <v>-110526.7534512956</v>
       </c>
       <c r="J6" t="n">
-        <v>-323568.6710485814</v>
+        <v>-317052.385894008</v>
       </c>
       <c r="K6" t="n">
         <v>-116766.5218540786</v>
       </c>
       <c r="L6" t="n">
-        <v>-171949.1107886996</v>
+        <v>-175997.9479991719</v>
       </c>
       <c r="M6" t="n">
-        <v>-152727.5829109185</v>
+        <v>-153779.2779221067</v>
       </c>
       <c r="N6" t="n">
         <v>-110526.7534512956</v>
       </c>
       <c r="O6" t="n">
-        <v>-138294.4474940668</v>
+        <v>-138294.4474940667</v>
       </c>
       <c r="P6" t="n">
-        <v>-110526.7534512956</v>
+        <v>-110526.7534512955</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.489096301444</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660673</v>
+        <v>78.07030221924593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>277.6601366691341</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>99.7971032078008</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,16 +27427,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863131</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,13 +27543,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.4750707732299</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>276.333538024364</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>97.73140949419846</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>26.18880355902535</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>57.95669902663488</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>248.0464527923776</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>220.1482896444458</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>119.825676710418</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>14.88709756352083</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>5.636002634528609</v>
-      </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634528666</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.71049010668769</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431667</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,43 +29509,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>43.49509683160085</v>
       </c>
       <c r="L32" t="n">
-        <v>86.2729119656691</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.8683420224738</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045706</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,16 +30408,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,25 +30645,25 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668697</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668865</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>220.430950320563</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
-        <v>215.065246413586</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046807</v>
+        <v>400.5089558396917</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344379</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0517622267129</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729464</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776343</v>
+        <v>370.1689632019391</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>198.2933506465095</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>109.4615733925917</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,10 +35972,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873206</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133864</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934977</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611266</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36850,10 +36850,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>406.1035372633805</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338801</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273744</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>271.2165915595526</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060954</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37704,16 +37704,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634527896</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934986</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
